--- a/Heights.xlsx
+++ b/Heights.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>Adult</t>
   </si>
   <si>
     <t>John</t>
@@ -301,21 +304,27 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>25.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>174.0</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>21.0</v>
@@ -323,29 +332,35 @@
       <c r="C3" s="1">
         <v>181.0</v>
       </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>179.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>167.0</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ref="B5:C5" si="1">AVERAGE(B2:B4)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
